--- a/design/database design.xlsx
+++ b/design/database design.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ff36532a79950d3c/Desktop/Dogz 4 Life/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CroninRobertO\Documents\github\dogz4life\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B42DB9D2-7C51-4C7D-9A73-5BA0B9C6B2FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52637F6-54CD-43B2-9C06-A35401D7E440}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{337D83CD-691A-486D-90E8-C263F4CEE7D5}"/>
   </bookViews>
@@ -453,7 +453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B1974C-4BC0-4F6C-B5D8-2B631EC8A62B}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView zoomScale="370" zoomScaleNormal="370" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -500,7 +500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF2137E-D0E0-49F1-9D28-AB9D1C54B1F2}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -546,7 +546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0A62E7-7E1C-4D15-8DAC-BF5F7142C13B}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -591,7 +591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22388A0A-07E7-4B35-8E7B-FF8DDEE677B2}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
